--- a/data/trans_camb/P11_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R2-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.1847632617041306</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4751837030026509</v>
+        <v>0.4751837030026507</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.908975311373446</v>
+        <v>-0.9939955677888921</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.238680797581346</v>
+        <v>-1.262585724091291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.785122964208546</v>
+        <v>-1.906313945781342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02682071343779365</v>
+        <v>0.07740377848070562</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.213768000337474</v>
+        <v>-1.268057623847052</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.1841180545999743</v>
+        <v>-0.1453703765677982</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.09111451245656622</v>
+        <v>-0.08256301401188965</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8659781029305322</v>
+        <v>-0.9453393065908906</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.6079826240487975</v>
+        <v>-0.6025599743399167</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.341425249035344</v>
+        <v>1.378950504211541</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8896118652588981</v>
+        <v>0.9083098555138532</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1930276284641677</v>
+        <v>-0.1929701400541868</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.375088819832261</v>
+        <v>3.524694186143294</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.092528165353841</v>
+        <v>1.080328325625884</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.062983284939688</v>
+        <v>6.255512533913403</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.928398454864463</v>
+        <v>1.794095420115559</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5832419194444007</v>
+        <v>0.5915786896624202</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.310430145823888</v>
+        <v>2.521968455500452</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.2320474255408562</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5967915586882652</v>
+        <v>0.5967915586882649</v>
       </c>
     </row>
     <row r="8">
@@ -779,26 +779,24 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-0.8803061254481465</v>
-      </c>
+      <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.2627259494904573</v>
+        <v>-0.1805950369289052</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.5530970366698221</v>
+        <v>-0.408716217177551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1657699413392074</v>
+        <v>-0.180278886474248</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8031407467452893</v>
+        <v>-0.8218614556959124</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7145504146383808</v>
+        <v>-0.7053561365374429</v>
       </c>
     </row>
     <row r="9">
@@ -808,26 +806,24 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>4.805238316740406</v>
-      </c>
+      <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>12.32297346898711</v>
+        <v>10.28826450610422</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>21.49505577689313</v>
+        <v>23.78692884303354</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.295975742081713</v>
+        <v>4.158267938153744</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.472697057237564</v>
+        <v>1.740748611830319</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.692703361170371</v>
+        <v>6.792318666311311</v>
       </c>
     </row>
     <row r="10">
@@ -857,7 +853,7 @@
         <v>0.7411576230769781</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.5042411266702528</v>
+        <v>0.5042411266702524</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.5519399265724666</v>
@@ -877,31 +873,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.701810582520804</v>
+        <v>-1.676759996909654</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.655650995890767</v>
+        <v>-1.858475362755694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05215062198973857</v>
+        <v>-0.0508465115116777</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.659322736609347</v>
+        <v>-2.718339662160688</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.078050450320771</v>
+        <v>-1.248667356576271</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.42266707235685</v>
+        <v>-1.742073771967122</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.622768737379818</v>
+        <v>-1.692791109597385</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.924329645529663</v>
+        <v>-0.9521008466388915</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.04012065279985608</v>
+        <v>-0.01696090802994737</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +908,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.499174130524641</v>
+        <v>1.391580221954928</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.500206526014777</v>
+        <v>1.378030642677551</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.38613134271584</v>
+        <v>5.06081145988618</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6304304012563463</v>
+        <v>0.5483216466870887</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.904774079076429</v>
+        <v>2.697239586238346</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.722805117448663</v>
+        <v>2.618631409737758</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6777525915927298</v>
+        <v>0.4762997767020697</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.684637220826398</v>
+        <v>1.656243847186261</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.175636200783114</v>
+        <v>3.300686071719257</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +958,7 @@
         <v>0.3073202520038754</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2090830685592575</v>
+        <v>0.2090830685592573</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2491126277418979</v>
@@ -982,31 +978,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6148393341218075</v>
+        <v>-0.6173471535373698</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6613581581206208</v>
+        <v>-0.6829735211223121</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0237008573223023</v>
+        <v>-0.08473650701809902</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7989421755979629</v>
+        <v>-0.7726809257626127</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3499973285322275</v>
+        <v>-0.4041371947572929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4673955283356636</v>
+        <v>-0.5294215284284902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5888415801982994</v>
+        <v>-0.6166969855627238</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3421488597078627</v>
+        <v>-0.3629585922977056</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.0269163746929886</v>
+        <v>-0.03972666164788006</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1013,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.206748340629551</v>
+        <v>1.109287399237231</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.278827659247633</v>
+        <v>1.080946945025204</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.016750056241559</v>
+        <v>3.462816324945432</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4732805271175292</v>
+        <v>0.5797927441953604</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.804286977227097</v>
+        <v>1.699471704512333</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.861677414849762</v>
+        <v>1.724096076171637</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4599757130901467</v>
+        <v>0.3188749146874307</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.02906220134292</v>
+        <v>1.014072429565278</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.825408135746751</v>
+        <v>1.980102107448681</v>
       </c>
     </row>
     <row r="16">
@@ -1071,7 +1067,7 @@
         <v>0.9651572897324059</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.370730182171795</v>
+        <v>3.370730182171793</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.988872219882208</v>
@@ -1091,31 +1087,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9211343009848327</v>
+        <v>-1.069083733430056</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.455669733317426</v>
+        <v>-1.462193922676967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.02807999047797</v>
+        <v>1.120764877247276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9926842036235246</v>
+        <v>1.148274222896415</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8856771855266751</v>
+        <v>-0.7231149450612705</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.453426938976983</v>
+        <v>1.314674786434762</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6292675819860352</v>
+        <v>0.7173508025356099</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7269763876801947</v>
+        <v>-0.6511736087814984</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.797940347085936</v>
+        <v>1.76605790854558</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1122,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.438423745534806</v>
+        <v>2.330946032977683</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.646792923749217</v>
+        <v>1.644606869300671</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.385464794662609</v>
+        <v>5.441311124501084</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.469632143249383</v>
+        <v>5.355897176520673</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.869933136956115</v>
+        <v>2.943877391874833</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.439250633657172</v>
+        <v>5.390530274618975</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.290317920421068</v>
+        <v>3.457499081290702</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.679571371968827</v>
+        <v>1.654912129957802</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.659158335670498</v>
+        <v>4.710884086020537</v>
       </c>
     </row>
     <row r="19">
@@ -1196,31 +1192,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3966457133415878</v>
+        <v>-0.4174097525885275</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5931233188257955</v>
+        <v>-0.561372072581011</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2969639821700625</v>
+        <v>0.2942184193904784</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2119227255376901</v>
+        <v>0.2894042588712835</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2661149398870884</v>
+        <v>-0.2442046821752888</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3827685344844327</v>
+        <v>0.3324467509279512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1826788323959474</v>
+        <v>0.261580911887865</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2563060771083084</v>
+        <v>-0.2355752246824013</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6496206615028687</v>
+        <v>0.6146648035755574</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1227,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.184064301582576</v>
+        <v>2.130534506826681</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.684902609811295</v>
+        <v>1.585165605810038</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.973063906867975</v>
+        <v>4.696827539962032</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.290684480080659</v>
+        <v>3.229312760845478</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.786620102240973</v>
+        <v>1.727230916927538</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.412810366940589</v>
+        <v>3.193098795178798</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.968341910593218</v>
+        <v>2.22008321966395</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.02089013789962</v>
+        <v>0.9829583016853062</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.979838986720078</v>
+        <v>2.913380858044062</v>
       </c>
     </row>
     <row r="22">
@@ -1276,7 +1272,7 @@
         <v>2.113243368601967</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.389831175939326</v>
+        <v>5.389831175939324</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.500246956386888</v>
@@ -1294,7 +1290,7 @@
         <v>2.198926877422172</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.891960534210502</v>
+        <v>4.891960534210503</v>
       </c>
     </row>
     <row r="23">
@@ -1305,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3921921725666151</v>
+        <v>-0.6662835534747306</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.230690273683801e-05</v>
+        <v>-0.2459827080811652</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.897519777303668</v>
+        <v>2.859466966563998</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.130284010416145</v>
+        <v>-1.230184621242094</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.2880316646554921</v>
+        <v>-0.710827470898363</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.073303241095482</v>
+        <v>1.743468310366748</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1172351612309561</v>
+        <v>-0.1560688811675793</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3008595732467764</v>
+        <v>0.4237314681698296</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.98285063526823</v>
+        <v>3.090463707537664</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.921351540669757</v>
+        <v>3.997592282264323</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.57254462136125</v>
+        <v>4.544825612737786</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.279132302175693</v>
+        <v>8.045693176323129</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.445308018803582</v>
+        <v>4.422425668907833</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.070471957402282</v>
+        <v>5.145828564030931</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.828961243454573</v>
+        <v>6.593449569997833</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.441462857508917</v>
+        <v>3.411935417101136</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.016049375756369</v>
+        <v>3.997646637813522</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.711818068177627</v>
+        <v>6.872821960962253</v>
       </c>
     </row>
     <row r="25">
@@ -1410,31 +1406,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1346029950001937</v>
+        <v>-0.1893362891448389</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02508542349577117</v>
+        <v>-0.06548572309960797</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6962370886053737</v>
+        <v>0.641099966160564</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.229116177404385</v>
+        <v>-0.2294445156597406</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05220113346233709</v>
+        <v>-0.1463393479978045</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3459167730850237</v>
+        <v>0.2573123477018413</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.04404855332755605</v>
+        <v>-0.04007824921715483</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.04906579109785353</v>
+        <v>0.07679015535376342</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.619907880291491</v>
+        <v>0.6649768205568006</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.380199046101022</v>
+        <v>2.040582104981647</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.635115869637105</v>
+        <v>2.318646665321029</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.311769464367345</v>
+        <v>4.415150434372719</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.349769502182426</v>
+        <v>1.332585523667712</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.639687610977612</v>
+        <v>1.685260481133986</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.15625286675376</v>
+        <v>2.08505925909136</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.158721267891827</v>
+        <v>1.188334265713117</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.410959981590498</v>
+        <v>1.406555086495523</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.304339685534515</v>
+        <v>2.452533656230873</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1495,7 @@
         <v>7.06203282255356</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.709478696980334</v>
+        <v>8.709478696980335</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.476681308936743</v>
@@ -1508,7 +1504,7 @@
         <v>3.178203419891707</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>8.275312926635195</v>
+        <v>8.275312926635191</v>
       </c>
     </row>
     <row r="29">
@@ -1519,31 +1515,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.96366344113605</v>
+        <v>-1.818177493050665</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.630792417289984</v>
+        <v>-3.779186130843404</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.524602735077186</v>
+        <v>4.560651776832072</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.636012437431008</v>
+        <v>3.318148332178916</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.382978582076333</v>
+        <v>3.366709659729902</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.206717917830082</v>
+        <v>5.213765882591542</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.970441923096435</v>
+        <v>1.624554316720308</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3857587688451489</v>
+        <v>0.600956952403021</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.781844552174904</v>
+        <v>5.946809353356444</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1550,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.531328478186083</v>
+        <v>4.572682720797197</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.033272468897966</v>
+        <v>2.054904575394813</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.37393046301876</v>
+        <v>11.44077582353022</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.74582487899895</v>
+        <v>11.66213539640749</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.23881651666784</v>
+        <v>11.00735941275916</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.78120706619364</v>
+        <v>11.42963132437573</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.056439224793164</v>
+        <v>7.089848258835092</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.605961886387697</v>
+        <v>5.845922546172589</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.39312358636201</v>
+        <v>10.45149278748072</v>
       </c>
     </row>
     <row r="31">
@@ -1604,7 +1600,7 @@
         <v>1.172150677973874</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.445592454181359</v>
+        <v>1.44559245418136</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.7920705663083327</v>
@@ -1624,31 +1620,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.289958725273935</v>
+        <v>-0.2867382668021314</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5492588102415843</v>
+        <v>-0.5530400718652738</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5825867270746345</v>
+        <v>0.610944789034615</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4035241257816543</v>
+        <v>0.4246541525475354</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4287347570178129</v>
+        <v>0.4272181520210688</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6391130692791885</v>
+        <v>0.6198431316090703</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3072975231585071</v>
+        <v>0.2391340827008979</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.04537823621571201</v>
+        <v>0.08568941088726675</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.7981991417162185</v>
+        <v>0.8344950493916067</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1655,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.231335012348207</v>
+        <v>1.090811266680603</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5273512815825053</v>
+        <v>0.5769438485318882</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.028696723000295</v>
+        <v>3.135286457092719</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.723417904501571</v>
+        <v>2.707179747260697</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.659037697915176</v>
+        <v>2.585698786161044</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.845665668005868</v>
+        <v>2.837520463671696</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.546256238774571</v>
+        <v>1.596317275015727</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.224417909510397</v>
+        <v>1.392258399021925</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.379370641479762</v>
+        <v>2.295881178442737</v>
       </c>
     </row>
     <row r="34">
@@ -1713,7 +1709,7 @@
         <v>4.282035792653885</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.309108134257764</v>
+        <v>5.309108134257759</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.766492486778668</v>
@@ -1722,7 +1718,7 @@
         <v>2.088423900075549</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.354721013733694</v>
+        <v>3.354721013733691</v>
       </c>
     </row>
     <row r="35">
@@ -1733,31 +1729,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.962123279592796</v>
+        <v>-1.586749861009149</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.418081606643756</v>
+        <v>-4.925494748414343</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.540190842235257</v>
+        <v>-2.870673303761523</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.549554582563952</v>
+        <v>2.604563616411169</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.6884624496421096</v>
+        <v>-0.4088812356568775</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.096246201289892</v>
+        <v>1.193633871387113</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.889329082300941</v>
+        <v>1.854889903488991</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.20478733882342</v>
+        <v>-1.26258562350444</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.4687954422785163</v>
+        <v>0.6062780277575974</v>
       </c>
     </row>
     <row r="36">
@@ -1768,31 +1764,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.788237571597062</v>
+        <v>8.727222579188602</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.712279432389702</v>
+        <v>3.457823690666546</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.083611214987621</v>
+        <v>5.062133539539897</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.42143867820231</v>
+        <v>13.50587986703225</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.323309741529092</v>
+        <v>9.47498828705303</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.651565569661701</v>
+        <v>9.238851555866797</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.527682601072003</v>
+        <v>9.413322774725787</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.619339018918156</v>
+        <v>5.504866391609952</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.105454434926618</v>
+        <v>6.267254622202056</v>
       </c>
     </row>
     <row r="37">
@@ -1818,7 +1814,7 @@
         <v>0.3907914382460538</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.484525142725288</v>
+        <v>0.4845251427252875</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.6198830781846391</v>
@@ -1827,7 +1823,7 @@
         <v>0.2245001859798468</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.3606238615955649</v>
+        <v>0.3606238615955645</v>
       </c>
     </row>
     <row r="38">
@@ -1838,31 +1834,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2338614479539039</v>
+        <v>-0.1970890256910356</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4805841173538511</v>
+        <v>-0.5151336170931173</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.267452879725191</v>
+        <v>-0.2782930907224207</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1902064899311411</v>
+        <v>0.1814094090714228</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.07343821916484053</v>
+        <v>-0.0440915090080457</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07106644934201167</v>
+        <v>0.08258520153527329</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1565981529798279</v>
+        <v>0.1625999689024121</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1144542430977742</v>
+        <v>-0.1224304687834835</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.03865574282769153</v>
+        <v>0.05401158028587506</v>
       </c>
     </row>
     <row r="39">
@@ -1873,31 +1869,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.649590574326999</v>
+        <v>1.588233898058032</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6979280521104904</v>
+        <v>0.7139840770862157</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.018960479573556</v>
+        <v>1.04387630812335</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.477636588187916</v>
+        <v>1.481045470654986</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.026228852810413</v>
+        <v>1.047211819978666</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.170148244952463</v>
+        <v>1.084360895653566</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.230012454838467</v>
+        <v>1.217706934591441</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.715629642810252</v>
+        <v>0.707495793668198</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8132525207854068</v>
+        <v>0.8826089325204783</v>
       </c>
     </row>
     <row r="40">
@@ -1947,31 +1943,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.06638022419129622</v>
+        <v>-0.447668876417658</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.899682709056067</v>
+        <v>-4.737675640481577</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.941377961716906</v>
+        <v>-1.416328492414429</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9.489840692053242</v>
+        <v>9.746273351473125</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>5.524493928558761</v>
+        <v>5.184036473211419</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>16.12905710202789</v>
+        <v>16.88375833608144</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>8.252345336562481</v>
+        <v>7.70368871686974</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.313833077494705</v>
+        <v>3.461438220774762</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>10.9202850127576</v>
+        <v>10.38787943021168</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1978,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>14.6506762380942</v>
+        <v>13.93470961842577</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.755142571303415</v>
+        <v>7.577578034991109</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.845425912413191</v>
+        <v>9.56111605241955</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>22.37512568340131</v>
+        <v>22.60877484948147</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>18.70249330136656</v>
+        <v>18.62504374915113</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>26.91521540668648</v>
+        <v>27.8477211760149</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>17.38624433007773</v>
+        <v>17.62370346675496</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>12.69496223024752</v>
+        <v>13.08893117653356</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>18.94906135413348</v>
+        <v>18.69839043710301</v>
       </c>
     </row>
     <row r="43">
@@ -2052,31 +2048,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.02179821125437488</v>
+        <v>-0.0308282746927882</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.296461436092557</v>
+        <v>-0.288173430404692</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1195875913320523</v>
+        <v>-0.09044599558494956</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.4840462204288504</v>
+        <v>0.4954905953185877</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.296474053440028</v>
+        <v>0.2515618894855448</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8108122860233435</v>
+        <v>0.8444424591116338</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4645254898993865</v>
+        <v>0.4313873244911839</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1935283615433931</v>
+        <v>0.1872130203923583</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5976092682764433</v>
+        <v>0.5965004212144953</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2083,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.533240813630189</v>
+        <v>1.459967967136637</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7928401370589041</v>
+        <v>0.7857483869705443</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.035895960354718</v>
+        <v>1.023398485580364</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.69114571945476</v>
+        <v>1.762431695382149</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.435859023051637</v>
+        <v>1.378759903867113</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.106732962177381</v>
+        <v>2.181938398494224</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.334405687733536</v>
+        <v>1.390400266795176</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.020030107713513</v>
+        <v>1.022090805397706</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.583942442084288</v>
+        <v>1.504461060910249</v>
       </c>
     </row>
     <row r="46">
@@ -2141,7 +2137,7 @@
         <v>3.939452361895486</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>7.282668710584458</v>
+        <v>7.282668710584457</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.150950152053396</v>
@@ -2150,7 +2146,7 @@
         <v>2.328590202637038</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>5.894475417258369</v>
+        <v>5.894475417258371</v>
       </c>
     </row>
     <row r="47">
@@ -2161,31 +2157,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.4873370100407166</v>
+        <v>0.609284693343078</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.3739661028165633</v>
+        <v>-0.3860309083878609</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3.34168505971458</v>
+        <v>3.346626153582392</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.332340351734993</v>
+        <v>3.392226403558374</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.679712409417568</v>
+        <v>2.653186304663572</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>6.020676107675071</v>
+        <v>6.152060237029372</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.278890379191618</v>
+        <v>2.279824315280409</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.507351927006644</v>
+        <v>1.482289398912835</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>5.079983881362049</v>
+        <v>5.132581275844196</v>
       </c>
     </row>
     <row r="48">
@@ -2196,31 +2192,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.532093149093071</v>
+        <v>2.582825517210199</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.579044025549797</v>
+        <v>1.583009021178663</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.518805059021347</v>
+        <v>5.46536947597062</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.948314071785512</v>
+        <v>5.821508177619121</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.225944211179296</v>
+        <v>5.156450081931649</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>8.369080359218858</v>
+        <v>8.533775052144286</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.891207170061992</v>
+        <v>4.016185100939454</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.120879326338385</v>
+        <v>3.094759976497515</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>6.660914944497379</v>
+        <v>6.770718946484397</v>
       </c>
     </row>
     <row r="49">
@@ -2266,31 +2262,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1270280474771649</v>
+        <v>0.1508379334677494</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.09060403324132392</v>
+        <v>-0.1063378398132139</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.8107066686705658</v>
+        <v>0.8362810427688391</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.5867365194609807</v>
+        <v>0.5959212434963155</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.4721204389814894</v>
+        <v>0.4662860950831895</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>1.033435706202774</v>
+        <v>1.045360018440118</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4871245428988275</v>
+        <v>0.4749827642634251</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.3184253878146223</v>
+        <v>0.3162659367485153</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.048934451951642</v>
+        <v>1.094779117182615</v>
       </c>
     </row>
     <row r="51">
@@ -2301,31 +2297,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8553061764054921</v>
+        <v>0.8840133570569624</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5203355637070265</v>
+        <v>0.5290683271644492</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.774562474188088</v>
+        <v>1.772737184399083</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.29208999877757</v>
+        <v>1.235122859263303</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.140622201931527</v>
+        <v>1.098063571547517</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.884945088294401</v>
+        <v>1.849039645527455</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.9739264677655255</v>
+        <v>0.990158410648184</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.7843719725865316</v>
+        <v>0.7799652694864068</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.674996891936532</v>
+        <v>1.697314047185633</v>
       </c>
     </row>
     <row r="52">
